--- a/data/trans_orig/P36B16-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B16-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>9268</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4627</v>
+        <v>4339</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17874</v>
+        <v>16935</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01683200931877015</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008403892582594729</v>
+        <v>0.007880529560187369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03246118911298835</v>
+        <v>0.03075707788469481</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -762,19 +762,19 @@
         <v>7551</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3835</v>
+        <v>3955</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13437</v>
+        <v>12521</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01548787171561095</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007866816912998119</v>
+        <v>0.008112072489597584</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02756268515468224</v>
+        <v>0.02568314876485967</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -783,19 +783,19 @@
         <v>16819</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10526</v>
+        <v>9796</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25832</v>
+        <v>24900</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01620079372474647</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0101393421024122</v>
+        <v>0.009436484367812121</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02488298782001982</v>
+        <v>0.02398578581434654</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>50164</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37360</v>
+        <v>38086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65579</v>
+        <v>64406</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09110555051616782</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06785024965723584</v>
+        <v>0.0691704299930104</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1191012211754854</v>
+        <v>0.1169696980084525</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -833,19 +833,19 @@
         <v>71607</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58257</v>
+        <v>57341</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>90443</v>
+        <v>87943</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1468818887097201</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1194981240072759</v>
+        <v>0.1176195200134371</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.185518216401746</v>
+        <v>0.180391168468961</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>149</v>
@@ -854,19 +854,19 @@
         <v>121771</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>102735</v>
+        <v>102939</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>142782</v>
+        <v>142555</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1172984747841595</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09896103619074188</v>
+        <v>0.09915783809643755</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1375373413682545</v>
+        <v>0.1373186532741734</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>334683</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>310685</v>
+        <v>310033</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>358196</v>
+        <v>357807</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6078307344448615</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5642479643177603</v>
+        <v>0.5630640892797003</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6505341638375071</v>
+        <v>0.6498271310029515</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>415</v>
@@ -904,19 +904,19 @@
         <v>288889</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>269623</v>
+        <v>270105</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>308146</v>
+        <v>307443</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5925774811581583</v>
+        <v>0.5925774811581581</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5530582263608274</v>
+        <v>0.5540466411137318</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6320773871411398</v>
+        <v>0.6306354463257355</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>753</v>
@@ -925,19 +925,19 @@
         <v>623572</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>588743</v>
+        <v>593671</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>654236</v>
+        <v>655673</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6006677093858714</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5671184240116959</v>
+        <v>0.5718653263126529</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6302053314797071</v>
+        <v>0.6315902250829062</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>149296</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>128153</v>
+        <v>128353</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>171778</v>
+        <v>172852</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2711429798670108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2327431453328901</v>
+        <v>0.2331077719036667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3119735350322133</v>
+        <v>0.3139229113566018</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>157</v>
@@ -975,19 +975,19 @@
         <v>115569</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>98979</v>
+        <v>99309</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132825</v>
+        <v>131332</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2370590288328649</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2030293289708596</v>
+        <v>0.2037062737335618</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.272454021850744</v>
+        <v>0.2693915600928281</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>303</v>
@@ -996,19 +996,19 @@
         <v>264866</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>239439</v>
+        <v>239262</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>292794</v>
+        <v>293025</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2551369390062194</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2306444686684013</v>
+        <v>0.2304739833499172</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2820394101300675</v>
+        <v>0.2822615837599136</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>7207</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3274</v>
+        <v>3560</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14646</v>
+        <v>14963</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01308872585318984</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00594584844264094</v>
+        <v>0.006464966270376108</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02659908575355415</v>
+        <v>0.02717440812256623</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1046,19 +1046,19 @@
         <v>3897</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1712</v>
+        <v>1474</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8192</v>
+        <v>8388</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00799372958364594</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003511826342043344</v>
+        <v>0.003023861403336185</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01680276939189805</v>
+        <v>0.01720477731955978</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -1067,19 +1067,19 @@
         <v>11104</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6000</v>
+        <v>6204</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18559</v>
+        <v>18744</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01069608309900326</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005779786707225038</v>
+        <v>0.005976174922150181</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01787731678663769</v>
+        <v>0.01805525456205656</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>3503</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1085</v>
+        <v>1020</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8431</v>
+        <v>8365</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.007248881651919606</v>
+        <v>0.007248881651919605</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002245084251691663</v>
+        <v>0.002110318648491909</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01744720658247031</v>
+        <v>0.0173107327509454</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1192,19 +1192,19 @@
         <v>6419</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3007</v>
+        <v>2653</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13188</v>
+        <v>13500</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.01519916400199155</v>
+        <v>0.01519916400199154</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007121028634969805</v>
+        <v>0.006282980862660306</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03122831945776518</v>
+        <v>0.03196782747083745</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1213,19 +1213,19 @@
         <v>9921</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5087</v>
+        <v>4798</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17441</v>
+        <v>18523</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01095659339392046</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0056173403505665</v>
+        <v>0.005299227910400313</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01926070859778664</v>
+        <v>0.02045588012509359</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>50743</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38187</v>
+        <v>38465</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>64702</v>
+        <v>65484</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1050108981667035</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07902736038110164</v>
+        <v>0.07960237723472191</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1339006340918525</v>
+        <v>0.1355173339037636</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>77</v>
@@ -1263,19 +1263,19 @@
         <v>52672</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41811</v>
+        <v>41857</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>64989</v>
+        <v>64832</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1247291256055066</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0990091712427596</v>
+        <v>0.09911867004696744</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1538948094346282</v>
+        <v>0.1535226031301015</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>131</v>
@@ -1284,19 +1284,19 @@
         <v>103415</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>86109</v>
+        <v>87736</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>122151</v>
+        <v>123581</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1142067355202828</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09509493788317322</v>
+        <v>0.09689123693733515</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1348975960264237</v>
+        <v>0.1364777980336997</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>276290</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>256054</v>
+        <v>251864</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>300868</v>
+        <v>299366</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5717784040857187</v>
+        <v>0.5717784040857185</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5299001981334283</v>
+        <v>0.5212289375540907</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6226417264511047</v>
+        <v>0.6195334317527763</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>338</v>
@@ -1334,19 +1334,19 @@
         <v>239417</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>221045</v>
+        <v>221692</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>257749</v>
+        <v>257846</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5669440329033573</v>
+        <v>0.5669440329033572</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5234396479672135</v>
+        <v>0.5249717541200641</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6103537651656528</v>
+        <v>0.6105830021693798</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>613</v>
@@ -1355,19 +1355,19 @@
         <v>515707</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>484789</v>
+        <v>485083</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>543697</v>
+        <v>544179</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5695238357560957</v>
+        <v>0.5695238357560958</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.535379026586068</v>
+        <v>0.5357039865657512</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6004347648979745</v>
+        <v>0.6009665929293638</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>140644</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>119292</v>
+        <v>119302</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>162713</v>
+        <v>162805</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2910599355851724</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2468736726538932</v>
+        <v>0.2468935798143428</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3367326246254885</v>
+        <v>0.3369235313787483</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>156</v>
@@ -1405,19 +1405,19 @@
         <v>116948</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101634</v>
+        <v>101572</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>134720</v>
+        <v>133120</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2769352528842228</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2406721199136605</v>
+        <v>0.2405234328210744</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3190197592635698</v>
+        <v>0.3152298629346947</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>294</v>
@@ -1426,19 +1426,19 @@
         <v>257592</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>229696</v>
+        <v>232789</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>283897</v>
+        <v>284568</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2844727164656057</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2536661156654731</v>
+        <v>0.2570812156086074</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3135234579278871</v>
+        <v>0.3142642783025211</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>12033</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5451</v>
+        <v>5885</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21275</v>
+        <v>23666</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02490188051048588</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01128034267605565</v>
+        <v>0.01217792577467534</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04402871142528824</v>
+        <v>0.04897693291834992</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1476,19 +1476,19 @@
         <v>6838</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3420</v>
+        <v>3805</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12533</v>
+        <v>11907</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.01619242460492181</v>
+        <v>0.0161924246049218</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008098517354769352</v>
+        <v>0.009011410230209809</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02967734990943248</v>
+        <v>0.02819667608964089</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -1497,19 +1497,19 @@
         <v>18871</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11312</v>
+        <v>11277</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>29245</v>
+        <v>30633</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02084011886409524</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0124921473067899</v>
+        <v>0.01245359841174153</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03229687863115075</v>
+        <v>0.03383011856833137</v>
       </c>
     </row>
     <row r="15">
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6991</v>
+        <v>6341</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00427189281275191</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01482302976168814</v>
+        <v>0.01344490896960675</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4829</v>
+        <v>4681</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007564949206367261</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02583407863259543</v>
+        <v>0.02503961710004731</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1643,19 +1643,19 @@
         <v>3429</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1068</v>
+        <v>935</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9466</v>
+        <v>8491</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005206636767254502</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001622109406958987</v>
+        <v>0.001420398618246077</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01437493353967822</v>
+        <v>0.01289414854774931</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>36719</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26188</v>
+        <v>25857</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52190</v>
+        <v>50839</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07785794082459993</v>
+        <v>0.0778579408245999</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05552832244239642</v>
+        <v>0.05482653903297687</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1106619632782004</v>
+        <v>0.1077990125593411</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -1693,19 +1693,19 @@
         <v>17905</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12312</v>
+        <v>12419</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25237</v>
+        <v>25755</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09578766336513578</v>
+        <v>0.09578766336513576</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06586395819254906</v>
+        <v>0.0664372279354908</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1350079118616156</v>
+        <v>0.1377771899290421</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>67</v>
@@ -1714,19 +1714,19 @@
         <v>54624</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42817</v>
+        <v>42395</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>70887</v>
+        <v>68775</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08294734645493436</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06501816765666446</v>
+        <v>0.06437738562956605</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1076431902611274</v>
+        <v>0.1044350749330468</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>282974</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>261102</v>
+        <v>261121</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>302015</v>
+        <v>304584</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6000134559268554</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5536374372995952</v>
+        <v>0.5536778085301992</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6403879280036475</v>
+        <v>0.6458361594694811</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>167</v>
@@ -1764,19 +1764,19 @@
         <v>106729</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>95437</v>
+        <v>95722</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>117758</v>
+        <v>117356</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5709592964417517</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.510554021154349</v>
+        <v>0.5120771607702667</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6299631676876333</v>
+        <v>0.6278126362768865</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>468</v>
@@ -1785,19 +1785,19 @@
         <v>389702</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>364623</v>
+        <v>366005</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>414115</v>
+        <v>415007</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5917663454356686</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5536845174491857</v>
+        <v>0.5557821551590157</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6288380318000343</v>
+        <v>0.6301926428284758</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>133055</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>114792</v>
+        <v>114370</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>153946</v>
+        <v>154086</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2821282045026001</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2434030816984435</v>
+        <v>0.2425096071825379</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3264242963835664</v>
+        <v>0.3267209313435885</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>82</v>
@@ -1835,19 +1835,19 @@
         <v>56425</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>46578</v>
+        <v>46420</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67410</v>
+        <v>67436</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3018508879476883</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2491744480356294</v>
+        <v>0.2483281365621067</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3606157703182507</v>
+        <v>0.3607562212437144</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>216</v>
@@ -1856,19 +1856,19 @@
         <v>189479</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>167792</v>
+        <v>165972</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>212646</v>
+        <v>210464</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2877265474743779</v>
+        <v>0.287726547474378</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2547934536505703</v>
+        <v>0.252030231942111</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3229057470826017</v>
+        <v>0.3195911318998666</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>16850</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9431</v>
+        <v>9102</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31559</v>
+        <v>28330</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.03572850593319273</v>
+        <v>0.03572850593319271</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01999758846227324</v>
+        <v>0.01930067196092189</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06691797084071133</v>
+        <v>0.06007049595622639</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1906,19 +1906,19 @@
         <v>4456</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1845</v>
+        <v>1890</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8862</v>
+        <v>9551</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0238372030390569</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009871117206243519</v>
+        <v>0.01011205700626698</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04741006793556425</v>
+        <v>0.05109298260218201</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -1927,19 +1927,19 @@
         <v>21306</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12457</v>
+        <v>12648</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35469</v>
+        <v>34245</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03235312386776461</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01891584044614577</v>
+        <v>0.01920679616551418</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05386055634634646</v>
+        <v>0.05200164797379395</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>11158</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5341</v>
+        <v>5519</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23367</v>
+        <v>21592</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.009857885318337067</v>
+        <v>0.009857885318337069</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004718566276541546</v>
+        <v>0.004875867820312427</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02064496543364206</v>
+        <v>0.01907694323331368</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2052,19 +2052,19 @@
         <v>7513</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3892</v>
+        <v>3467</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14117</v>
+        <v>13610</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008735750271978876</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004525476169257492</v>
+        <v>0.00403142647516672</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01641575528483281</v>
+        <v>0.01582579252628996</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -2073,19 +2073,19 @@
         <v>18670</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10784</v>
+        <v>11537</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29648</v>
+        <v>29123</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009373394054468064</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005413890136979712</v>
+        <v>0.005792079134121061</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.014884722682517</v>
+        <v>0.01462125521757279</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>84101</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>65609</v>
+        <v>66631</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>104472</v>
+        <v>105101</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.074304682805724</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05796672711387849</v>
+        <v>0.05886973469640835</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09230269003397309</v>
+        <v>0.09285799498112438</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>96</v>
@@ -2123,19 +2123,19 @@
         <v>62056</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>50025</v>
+        <v>49767</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>75766</v>
+        <v>74977</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.0721590096254132</v>
+        <v>0.07215900962541319</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05816900467061394</v>
+        <v>0.05786944257294638</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08810112188294164</v>
+        <v>0.08718399756674124</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>180</v>
@@ -2144,19 +2144,19 @@
         <v>146157</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>125089</v>
+        <v>122366</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>169691</v>
+        <v>171378</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.07337827032591382</v>
+        <v>0.07337827032591383</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06280096806494574</v>
+        <v>0.06143400179497498</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08519357035721749</v>
+        <v>0.08604012106805452</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>662944</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>625914</v>
+        <v>626509</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>696428</v>
+        <v>695712</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5857207233448122</v>
+        <v>0.5857207233448121</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.553004316227464</v>
+        <v>0.5535301216336121</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6153041857403732</v>
+        <v>0.6146715098400922</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>751</v>
@@ -2194,19 +2194,19 @@
         <v>519288</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>496936</v>
+        <v>494573</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>546735</v>
+        <v>548532</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.6038297960750784</v>
+        <v>0.6038297960750783</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5778383609917787</v>
+        <v>0.5750904823997689</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6357449254322547</v>
+        <v>0.6378340551208653</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1428</v>
@@ -2215,19 +2215,19 @@
         <v>1182232</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1139635</v>
+        <v>1139931</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1228053</v>
+        <v>1225105</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.5935394681233989</v>
+        <v>0.593539468123399</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5721534667801033</v>
+        <v>0.5723021910839738</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6165439190415999</v>
+        <v>0.6150636413388982</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>351350</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>318678</v>
+        <v>318665</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>387493</v>
+        <v>385488</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3104231728276566</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2815567031171701</v>
+        <v>0.2815452517007691</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3423554380237127</v>
+        <v>0.3405843963137406</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>348</v>
@@ -2265,19 +2265,19 @@
         <v>251587</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>228640</v>
+        <v>228023</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>274679</v>
+        <v>275506</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2925466453308496</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2658628326750643</v>
+        <v>0.2651453526167994</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3193972856906913</v>
+        <v>0.3203591791446197</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>674</v>
@@ -2286,19 +2286,19 @@
         <v>602938</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>561365</v>
+        <v>562951</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>645350</v>
+        <v>644205</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3027048314135588</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2818334005773613</v>
+        <v>0.2826293150934157</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3239977289092423</v>
+        <v>0.3234229148269929</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>22290</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13368</v>
+        <v>14098</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>33856</v>
+        <v>36050</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0196935357034702</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01181100722533091</v>
+        <v>0.01245550022740831</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02991224264161935</v>
+        <v>0.03185094083530381</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -2336,19 +2336,19 @@
         <v>19547</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12602</v>
+        <v>12590</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31073</v>
+        <v>30397</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.02272879869667997</v>
+        <v>0.02272879869667996</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01465367685619059</v>
+        <v>0.01464012499288447</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03613233406635274</v>
+        <v>0.03534627041606315</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>44</v>
@@ -2357,19 +2357,19 @@
         <v>41837</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>29736</v>
+        <v>29975</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>55896</v>
+        <v>57772</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.0210040360826604</v>
+        <v>0.02100403608266039</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01492887469957664</v>
+        <v>0.01504884129340343</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02806280951517916</v>
+        <v>0.02900451622484045</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>3846</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1177</v>
+        <v>1186</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9720</v>
+        <v>10235</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.006772086691280993</v>
+        <v>0.006772086691280992</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002072693087337718</v>
+        <v>0.002087385709846649</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01711337229467989</v>
+        <v>0.01802130633910667</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>17</v>
@@ -2482,19 +2482,19 @@
         <v>11119</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6706</v>
+        <v>6821</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17577</v>
+        <v>17671</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01340533240203833</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008084794431480628</v>
+        <v>0.008223768191577892</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.021192324236047</v>
+        <v>0.0213048313967082</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>22</v>
@@ -2503,19 +2503,19 @@
         <v>14965</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>9270</v>
+        <v>9558</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>22241</v>
+        <v>22191</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01070925393054835</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006633765110467584</v>
+        <v>0.006839710292968306</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01591606156236964</v>
+        <v>0.01588028392373692</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>35573</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24253</v>
+        <v>24991</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>48589</v>
+        <v>49067</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0626328345310853</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04270165581349519</v>
+        <v>0.04400161259119453</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08554873302561447</v>
+        <v>0.08639110557238353</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>116</v>
@@ -2553,19 +2553,19 @@
         <v>66357</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>54453</v>
+        <v>54583</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>79262</v>
+        <v>79813</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08000471667272598</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06565210705659194</v>
+        <v>0.06580904521462047</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09556406669049992</v>
+        <v>0.09622851099670526</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>154</v>
@@ -2574,19 +2574,19 @@
         <v>101930</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>84717</v>
+        <v>85704</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>119997</v>
+        <v>121224</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07294392630046773</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06062557728661144</v>
+        <v>0.06133230189653943</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08587326648908199</v>
+        <v>0.08675126490842083</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>319491</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>294128</v>
+        <v>292788</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>345320</v>
+        <v>344274</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.562520373829748</v>
+        <v>0.5625203738297477</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.517864266018657</v>
+        <v>0.515505062353343</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6079954180170323</v>
+        <v>0.6061550569680058</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>778</v>
@@ -2624,19 +2624,19 @@
         <v>491152</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>467525</v>
+        <v>468318</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>516047</v>
+        <v>516050</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5921669810005076</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5636808153831122</v>
+        <v>0.564636510264964</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6221817932973904</v>
+        <v>0.6221849497609186</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1084</v>
@@ -2645,19 +2645,19 @@
         <v>810644</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>774101</v>
+        <v>774193</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>846633</v>
+        <v>846881</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5801171365003737</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5539662537942486</v>
+        <v>0.5540319714708216</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6058718308052329</v>
+        <v>0.6060495232798749</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>196789</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>172111</v>
+        <v>173524</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>222542</v>
+        <v>223343</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.346481814603889</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3030313140873429</v>
+        <v>0.3055189008599314</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3918243509649125</v>
+        <v>0.3932337502967854</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>361</v>
@@ -2695,19 +2695,19 @@
         <v>249649</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>226489</v>
+        <v>228619</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>271346</v>
+        <v>270609</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3009939341285577</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.27307102003974</v>
+        <v>0.2756391177337226</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3271540067732082</v>
+        <v>0.3262644128947186</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>549</v>
@@ -2716,19 +2716,19 @@
         <v>446438</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>412766</v>
+        <v>413052</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>480942</v>
+        <v>481764</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3194824540192597</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2953861753688632</v>
+        <v>0.2955902976044624</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3441742901012179</v>
+        <v>0.3447629175003777</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>12264</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5944</v>
+        <v>6341</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>23951</v>
+        <v>24704</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02159289034399686</v>
+        <v>0.02159289034399685</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01046575991321799</v>
+        <v>0.01116514161085792</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04217051849079836</v>
+        <v>0.04349533513463825</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>16</v>
@@ -2766,19 +2766,19 @@
         <v>11138</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6672</v>
+        <v>6343</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17650</v>
+        <v>17691</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01342903579617044</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008043880503333833</v>
+        <v>0.007647297126011074</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02128063410333452</v>
+        <v>0.02132942317149812</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>26</v>
@@ -2787,19 +2787,19 @@
         <v>23402</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>15493</v>
+        <v>15724</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>35337</v>
+        <v>37069</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0167472292493506</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01108748344004013</v>
+        <v>0.01125218193719831</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02528835464860732</v>
+        <v>0.02652751518699159</v>
       </c>
     </row>
     <row r="33">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>11493</v>
+        <v>13426</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01135985609349502</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04844557032653987</v>
+        <v>0.05659649596685139</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>9</v>
@@ -2912,19 +2912,19 @@
         <v>7066</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3410</v>
+        <v>3355</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>15525</v>
+        <v>14922</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.008375232428043907</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.004041601600873384</v>
+        <v>0.003976908334168712</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01840032255347885</v>
+        <v>0.0176866037721162</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>10</v>
@@ -2933,19 +2933,19 @@
         <v>9761</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4125</v>
+        <v>4399</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>19722</v>
+        <v>21198</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.009030252815100911</v>
+        <v>0.009030252815100909</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003815877960389829</v>
+        <v>0.004069871019449408</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01824556114724898</v>
+        <v>0.01961104161561226</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>15842</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6785</v>
+        <v>5775</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>38166</v>
+        <v>35439</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.06677874750769434</v>
+        <v>0.06677874750769433</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02860150476350555</v>
+        <v>0.02434452573882722</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1608852517192383</v>
+        <v>0.149387785715963</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>151</v>
@@ -2983,19 +2983,19 @@
         <v>103281</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>86323</v>
+        <v>85728</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>123875</v>
+        <v>124881</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1224133524521144</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.102314272459427</v>
+        <v>0.1016088156289723</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1468219601101272</v>
+        <v>0.1480148465038598</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>158</v>
@@ -3004,19 +3004,19 @@
         <v>119123</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>99103</v>
+        <v>100344</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>145776</v>
+        <v>146629</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.110203504729504</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09168271593339861</v>
+        <v>0.09283037956633589</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1348610779481694</v>
+        <v>0.1356500401523238</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>143543</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>119720</v>
+        <v>117562</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>165750</v>
+        <v>166902</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6050857705211053</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5046615485753252</v>
+        <v>0.4955652062836013</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6986951208973884</v>
+        <v>0.7035515654105733</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>665</v>
@@ -3054,19 +3054,19 @@
         <v>459581</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>432695</v>
+        <v>431117</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>490896</v>
+        <v>489907</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5447151844373079</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5128489476722973</v>
+        <v>0.5109781106433272</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5818313702291092</v>
+        <v>0.5806583631519593</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>733</v>
@@ -3075,19 +3075,19 @@
         <v>603124</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>564678</v>
+        <v>563646</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>638722</v>
+        <v>640600</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.5579644141881852</v>
+        <v>0.557964414188185</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5223971575715459</v>
+        <v>0.5214426747225476</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5908968166811236</v>
+        <v>0.5926348152094163</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>67068</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>48179</v>
+        <v>48477</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>92815</v>
+        <v>92683</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2827158018577446</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.203093064535857</v>
+        <v>0.204349568543388</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3912491889787351</v>
+        <v>0.3906908844899538</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>313</v>
@@ -3125,19 +3125,19 @@
         <v>256330</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>229014</v>
+        <v>232229</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>281770</v>
+        <v>285009</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3038137209039469</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2714366777579581</v>
+        <v>0.2752480569306692</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3339664392243694</v>
+        <v>0.3378043452605051</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>345</v>
@@ -3146,19 +3146,19 @@
         <v>323398</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>291008</v>
+        <v>287040</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>357730</v>
+        <v>357028</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.2991834664233869</v>
+        <v>0.2991834664233867</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2692184740244853</v>
+        <v>0.2655475757559816</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3309443628928206</v>
+        <v>0.3302954382109147</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>8080</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2366</v>
+        <v>2280</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>22196</v>
+        <v>22592</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.03405982401996063</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.009975314947124414</v>
+        <v>0.009612853478165788</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09356214014215986</v>
+        <v>0.09523414670208698</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>20</v>
@@ -3196,19 +3196,19 @@
         <v>17450</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>10237</v>
+        <v>10422</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>29761</v>
+        <v>29841</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02068250977858677</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.01213274897935448</v>
+        <v>0.0123520134651038</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.03527374452027593</v>
+        <v>0.03536882772674137</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>24</v>
@@ -3217,19 +3217,19 @@
         <v>25530</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>15529</v>
+        <v>15960</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>42594</v>
+        <v>42653</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.0236183618438231</v>
+        <v>0.02361836184382309</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01436627597858643</v>
+        <v>0.01476523968457253</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.03940503806436416</v>
+        <v>0.03945917132184418</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>32484</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>21517</v>
+        <v>21851</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>47982</v>
+        <v>47942</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.009436283704232516</v>
+        <v>0.009436283704232514</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.006250520292323448</v>
+        <v>0.006347542949461138</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01393818820000507</v>
+        <v>0.01392650665810204</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>57</v>
@@ -3342,19 +3342,19 @@
         <v>41081</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>30842</v>
+        <v>31198</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>54120</v>
+        <v>54143</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01131745439544176</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.008496818225619648</v>
+        <v>0.008594854835870316</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01490965472015655</v>
+        <v>0.01491609931091201</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>88</v>
@@ -3363,19 +3363,19 @@
         <v>73565</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>58256</v>
+        <v>57298</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>93049</v>
+        <v>91764</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0104017889164656</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.008237107129680872</v>
+        <v>0.008101764879609452</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01315673422785736</v>
+        <v>0.01297502008074762</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>273142</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>241769</v>
+        <v>240421</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>310844</v>
+        <v>310443</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.07934456898754343</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07023127948847646</v>
+        <v>0.06983950916216505</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.090296526564315</v>
+        <v>0.09018019396457651</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>566</v>
@@ -3413,19 +3413,19 @@
         <v>373879</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>339993</v>
+        <v>341069</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>410132</v>
+        <v>410482</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1030012342461358</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.09366598661002845</v>
+        <v>0.09396239520735079</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1129887661153438</v>
+        <v>0.1130850223570121</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>839</v>
@@ -3434,19 +3434,19 @@
         <v>647021</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>601134</v>
+        <v>599422</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>700111</v>
+        <v>693986</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.09148628144243075</v>
+        <v>0.09148628144243076</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08499807470414074</v>
+        <v>0.08475595612173631</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09899296455958802</v>
+        <v>0.09812693769062286</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>2019924</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1950503</v>
+        <v>1956783</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2084905</v>
+        <v>2081031</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5867649332048747</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.5665988820354708</v>
+        <v>0.5684229907244392</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6056412356807788</v>
+        <v>0.6045156752189891</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3114</v>
@@ -3484,19 +3484,19 @@
         <v>2105056</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2050321</v>
+        <v>2058242</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2154512</v>
+        <v>2162397</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.579929211593602</v>
+        <v>0.5799292115936019</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5648501506032525</v>
+        <v>0.5670321760500019</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5935540786474351</v>
+        <v>0.5957261661669613</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>5079</v>
@@ -3505,19 +3505,19 @@
         <v>4124980</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4033223</v>
+        <v>4039856</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4197227</v>
+        <v>4206372</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.5832565196005697</v>
+        <v>0.5832565196005698</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.5702823489122799</v>
+        <v>0.5712202256765064</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5934718854047687</v>
+        <v>0.5947650435928855</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>1038202</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>975912</v>
+        <v>985509</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1102293</v>
+        <v>1093589</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3015858908581034</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2834913625051785</v>
+        <v>0.2862791962989615</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3202035882424757</v>
+        <v>0.3176752662226036</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1417</v>
@@ -3555,19 +3555,19 @@
         <v>1046509</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>999640</v>
+        <v>997832</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1096043</v>
+        <v>1094748</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2883062876814136</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2753943827571518</v>
+        <v>0.2748962178721731</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3019527196767982</v>
+        <v>0.3015958179498356</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2381</v>
@@ -3576,19 +3576,19 @@
         <v>2084711</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2012344</v>
+        <v>2016424</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>2173090</v>
+        <v>2158539</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2947701743771927</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2845378016629029</v>
+        <v>0.2851147245607153</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3072667181626288</v>
+        <v>0.3052091994608372</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>78724</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>60922</v>
+        <v>59243</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>103868</v>
+        <v>102135</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02286832324524598</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01769711122075144</v>
+        <v>0.01720937360864874</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03017244034208373</v>
+        <v>0.02966892645192649</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>82</v>
@@ -3626,19 +3626,19 @@
         <v>63326</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>49542</v>
+        <v>50218</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>78407</v>
+        <v>81064</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01744581208340689</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0136485864193213</v>
+        <v>0.01383475574551072</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.02160068990882104</v>
+        <v>0.02233259362503232</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>149</v>
@@ -3647,19 +3647,19 @@
         <v>142049</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>119895</v>
+        <v>119392</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>171492</v>
+        <v>168973</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02008523566334117</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0169527609464545</v>
+        <v>0.01688152403860595</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.0242483400846081</v>
+        <v>0.02389218593341808</v>
       </c>
     </row>
     <row r="45">
